--- a/data/steel/industries/steel_industry_EU28-CCSonly.xlsx
+++ b/data/steel/industries/steel_industry_EU28-CCSonly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/industries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E0771C-E8B7-024D-9F2B-48CBE08C3CE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD38FD9-D09A-9942-B8AC-7FF9D12FC587}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="460" windowWidth="25260" windowHeight="15760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1640" yWindow="460" windowWidth="25260" windowHeight="15760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Factory List" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
   <si>
     <t>Factory Name</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>data/steel/factories/steel_simplified_factory-ccs-bfcoke.xlsx</t>
-  </si>
-  <si>
-    <t>EU-C0-2030</t>
   </si>
   <si>
     <t>EU-0B-2050</t>
@@ -894,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -953,7 +950,7 @@
         <v>94.656000000000006</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -980,7 +977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1039,7 +1036,7 @@
         <v>138.32</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
